--- a/python_report/state_files/MSEB.xlsx
+++ b/python_report/state_files/MSEB.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\state_08.04.2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\Python Projects\Python Excel Reporting\python_report\state_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -609,22 +609,22 @@
     <t>A. Morning Peak at 12 Hrs</t>
   </si>
   <si>
-    <t>C. Evening Peak at 20 Hrs</t>
-  </si>
-  <si>
-    <t>D. Night Minimum at 4 Hrs</t>
-  </si>
-  <si>
-    <t>50.16 Hz at 06.00 Hrs</t>
-  </si>
-  <si>
-    <t>49.83 Hz at 00.05 Hrs</t>
+    <t>C. Evening Peak at 21 Hrs</t>
+  </si>
+  <si>
+    <t>D. Night Minimum at 5 Hrs</t>
+  </si>
+  <si>
+    <t>50.1 Hz at 04.59 Hrs</t>
+  </si>
+  <si>
+    <t>49.74 Hz at 19.35 Hrs</t>
   </si>
   <si>
     <t>0 % of Time(min)</t>
   </si>
   <si>
-    <t>B. Day Peak at 14 Hrs</t>
+    <t>B. Day Peak at 16 Hrs</t>
   </si>
   <si>
     <t>Date</t>
@@ -1687,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2006,31 +2006,31 @@
     </row>
     <row r="2" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B2">
-        <v>131.37100000000001</v>
+        <v>132.542</v>
       </c>
       <c r="C2">
-        <v>1142.962</v>
+        <v>795.37400000000002</v>
       </c>
       <c r="D2">
-        <v>7.8250000000000002</v>
+        <v>10.225</v>
       </c>
       <c r="E2">
-        <v>144.20500000000001</v>
+        <v>46.863999999999997</v>
       </c>
       <c r="F2">
-        <v>10.667</v>
+        <v>9.1140000000000008</v>
       </c>
       <c r="G2">
-        <v>77.436999999999998</v>
+        <v>55.381999999999998</v>
       </c>
       <c r="H2">
-        <v>149.863</v>
+        <v>151.881</v>
       </c>
       <c r="I2">
-        <v>1364.604</v>
+        <v>897.62</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2039,112 +2039,112 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.3569999999999993</v>
+        <v>17.936</v>
       </c>
       <c r="M2">
-        <v>89.887</v>
+        <v>106.997</v>
       </c>
       <c r="N2">
-        <v>9.1999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.5029999999999999</v>
+        <v>0.311</v>
       </c>
       <c r="P2">
-        <v>13.949</v>
+        <v>17.248999999999999</v>
       </c>
       <c r="Q2">
-        <v>123.848</v>
+        <v>101.499</v>
       </c>
       <c r="R2">
-        <v>1.048</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="S2">
-        <v>32.283000000000001</v>
+        <v>29.591999999999999</v>
       </c>
       <c r="T2">
-        <v>19.027000000000001</v>
+        <v>24.913</v>
       </c>
       <c r="U2">
-        <v>186.47399999999999</v>
+        <v>153.036</v>
       </c>
       <c r="V2">
-        <v>10.42</v>
+        <v>11.920999999999999</v>
       </c>
       <c r="W2">
-        <v>90.704999999999998</v>
+        <v>70.379000000000005</v>
       </c>
       <c r="X2">
-        <v>155.74</v>
+        <v>161.71199999999999</v>
       </c>
       <c r="Y2">
-        <v>1357.5150000000001</v>
+        <v>967.25199999999995</v>
       </c>
       <c r="Z2">
-        <v>14.696999999999999</v>
+        <v>12.298</v>
       </c>
       <c r="AA2">
-        <v>107.78</v>
+        <v>77.326999999999998</v>
       </c>
       <c r="AB2">
-        <v>8.8729999999999993</v>
+        <v>14.705</v>
       </c>
       <c r="AC2">
-        <v>176.488</v>
+        <v>76.456000000000003</v>
       </c>
       <c r="AD2">
-        <v>300.76499999999999</v>
+        <v>326.75200000000001</v>
       </c>
       <c r="AE2">
-        <v>2629.672</v>
+        <v>1953.221</v>
       </c>
       <c r="AF2">
-        <v>11.882999999999999</v>
+        <v>13.18</v>
       </c>
       <c r="AG2">
-        <v>106.142</v>
+        <v>80.757000000000005</v>
       </c>
       <c r="AH2">
-        <v>17.149999999999999</v>
+        <v>26.548999999999999</v>
       </c>
       <c r="AI2">
-        <v>151.87200000000001</v>
+        <v>155.24600000000001</v>
       </c>
       <c r="AJ2">
-        <v>4.8600000000000003</v>
+        <v>5.5720000000000001</v>
       </c>
       <c r="AK2">
-        <v>40.395000000000003</v>
+        <v>31.992000000000001</v>
       </c>
       <c r="AL2">
-        <v>107.187</v>
+        <v>114.676</v>
       </c>
       <c r="AM2">
-        <v>857.15</v>
+        <v>694.67899999999997</v>
       </c>
       <c r="AN2">
-        <v>45.281999999999996</v>
+        <v>40.668999999999997</v>
       </c>
       <c r="AO2">
-        <v>343.46</v>
+        <v>261.827</v>
       </c>
       <c r="AP2">
-        <v>4.9109999999999996</v>
+        <v>5.4249999999999998</v>
       </c>
       <c r="AQ2">
-        <v>40.851999999999997</v>
+        <v>30.51</v>
       </c>
       <c r="AR2">
-        <v>5.0570000000000004</v>
+        <v>9.4079999999999995</v>
       </c>
       <c r="AS2">
-        <v>40.738999999999997</v>
+        <v>58.832000000000001</v>
       </c>
       <c r="AT2">
-        <v>22.954999999999998</v>
+        <v>19.297999999999998</v>
       </c>
       <c r="AU2">
-        <v>174.542</v>
+        <v>106.02500000000001</v>
       </c>
       <c r="AV2">
         <v>0</v>
@@ -2153,10 +2153,10 @@
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>4.03</v>
+        <v>3.1840000000000002</v>
       </c>
       <c r="AY2">
-        <v>30.343</v>
+        <v>21.945</v>
       </c>
       <c r="AZ2">
         <v>0</v>
@@ -2165,25 +2165,25 @@
         <v>0</v>
       </c>
       <c r="BB2" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="BC2">
-        <v>19.295999999999999</v>
+        <v>8.7620000000000005</v>
       </c>
       <c r="BD2">
-        <v>145.81399999999999</v>
+        <v>51.286000000000001</v>
       </c>
       <c r="BE2">
-        <v>-2.5270000000000001</v>
+        <v>-6.72</v>
       </c>
       <c r="BF2">
-        <v>-17.876999999999999</v>
+        <v>-37.460999999999999</v>
       </c>
       <c r="BG2">
-        <v>-0.44</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="BH2">
-        <v>-4.2679999999999998</v>
+        <v>-0.46200000000000002</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -2198,16 +2198,16 @@
         <v>0</v>
       </c>
       <c r="BM2">
-        <v>148.77000000000001</v>
+        <v>132.387</v>
       </c>
       <c r="BN2">
-        <v>1194.336</v>
+        <v>801.55200000000002</v>
       </c>
       <c r="BO2">
-        <v>17.768999999999998</v>
+        <v>6.5670000000000002</v>
       </c>
       <c r="BP2">
-        <v>154.46799999999999</v>
+        <v>90.183999999999997</v>
       </c>
       <c r="BQ2">
         <v>0</v>
@@ -2216,52 +2216,52 @@
         <v>0</v>
       </c>
       <c r="BS2">
-        <v>-25.885000000000002</v>
+        <v>-35.622999999999998</v>
       </c>
       <c r="BT2">
-        <v>-216.18299999999999</v>
+        <v>-191.988</v>
       </c>
       <c r="BU2">
-        <v>394.20299999999997</v>
+        <v>386.68200000000002</v>
       </c>
       <c r="BV2">
-        <v>3330.6460000000002</v>
+        <v>2339.37</v>
       </c>
       <c r="BW2">
-        <v>34.064999999999998</v>
+        <v>44.718000000000004</v>
       </c>
       <c r="BX2">
-        <v>306.28300000000002</v>
+        <v>255.43199999999999</v>
       </c>
       <c r="BY2">
-        <v>21.266999999999999</v>
+        <v>27.739000000000001</v>
       </c>
       <c r="BZ2">
-        <v>187.08199999999999</v>
+        <v>159.97200000000001</v>
       </c>
       <c r="CA2">
-        <v>449.53500000000003</v>
+        <v>459.13900000000001</v>
       </c>
       <c r="CB2">
-        <v>3824.011</v>
+        <v>2754.7739999999999</v>
       </c>
       <c r="CC2">
-        <v>449.53500000000003</v>
+        <v>459.13900000000001</v>
       </c>
       <c r="CD2">
-        <v>3824.011</v>
+        <v>2754.7739999999999</v>
       </c>
       <c r="CE2">
-        <v>6.77</v>
+        <v>5.17</v>
       </c>
       <c r="CF2">
-        <v>52.43</v>
+        <v>36.26</v>
       </c>
       <c r="CG2">
-        <v>125.67100000000001</v>
+        <v>125.21899999999999</v>
       </c>
       <c r="CH2">
-        <v>1018.237</v>
+        <v>751.92899999999997</v>
       </c>
       <c r="CI2">
         <v>0</v>
@@ -2270,43 +2270,43 @@
         <v>0</v>
       </c>
       <c r="CM2" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="CN2">
-        <v>35.942999999999998</v>
+        <v>37.027999999999999</v>
       </c>
       <c r="CO2">
-        <v>308.52100000000002</v>
+        <v>269.29899999999998</v>
       </c>
       <c r="CP2">
-        <v>7.5819999999999999</v>
+        <v>2.387</v>
       </c>
       <c r="CQ2">
-        <v>69.141000000000005</v>
+        <v>65.123000000000005</v>
       </c>
       <c r="CR2">
-        <v>22.870999999999999</v>
+        <v>30.827999999999999</v>
       </c>
       <c r="CS2">
-        <v>187.05099999999999</v>
+        <v>192.10499999999999</v>
       </c>
       <c r="CT2">
-        <v>6.0670000000000002</v>
+        <v>6.9210000000000003</v>
       </c>
       <c r="CU2">
-        <v>51.975999999999999</v>
+        <v>51.28</v>
       </c>
       <c r="CV2">
-        <v>22.870999999999999</v>
+        <v>30.827999999999999</v>
       </c>
       <c r="CW2">
-        <v>187.05099999999999</v>
+        <v>193.541</v>
       </c>
       <c r="CX2">
         <v>0</v>
       </c>
       <c r="CY2">
-        <v>0</v>
+        <v>1.4359999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:103" x14ac:dyDescent="0.25">
@@ -2598,7 +2598,7 @@
     </row>
     <row r="11" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B11" t="s">
         <v>195</v>
@@ -2610,49 +2610,49 @@
         <v>197</v>
       </c>
       <c r="E11">
-        <v>5490</v>
+        <v>5438</v>
       </c>
       <c r="F11">
-        <v>5184</v>
+        <v>5643</v>
       </c>
       <c r="G11">
-        <v>5439</v>
+        <v>5499</v>
       </c>
       <c r="H11">
-        <v>436</v>
+        <v>506</v>
       </c>
       <c r="I11">
-        <v>188</v>
+        <v>1133</v>
       </c>
       <c r="J11">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="K11">
-        <v>425</v>
+        <v>372</v>
       </c>
       <c r="L11">
-        <v>447</v>
+        <v>365</v>
       </c>
       <c r="M11">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="N11">
-        <v>6351</v>
+        <v>6316</v>
       </c>
       <c r="O11">
-        <v>5819</v>
+        <v>7141</v>
       </c>
       <c r="P11">
-        <v>6089</v>
+        <v>6125</v>
       </c>
       <c r="Q11">
-        <v>7105</v>
+        <v>6072</v>
       </c>
       <c r="R11">
-        <v>5671</v>
+        <v>4863</v>
       </c>
       <c r="S11">
-        <v>5778</v>
+        <v>4882</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>-1078</v>
+        <v>-1811</v>
       </c>
       <c r="X11">
-        <v>-1308</v>
+        <v>-1467</v>
       </c>
       <c r="Y11">
-        <v>-970</v>
+        <v>-975</v>
       </c>
       <c r="Z11">
-        <v>17871.432000000001</v>
+        <v>16937</v>
       </c>
       <c r="AA11">
-        <v>15283.456</v>
+        <v>16250</v>
       </c>
       <c r="AB11">
-        <v>15512.432000000001</v>
+        <v>15116</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2691,64 +2691,64 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>17871.432000000001</v>
+        <v>16937</v>
       </c>
       <c r="AG11">
-        <v>15283.456</v>
+        <v>16250</v>
       </c>
       <c r="AH11">
-        <v>15512.432000000001</v>
+        <v>15116</v>
       </c>
       <c r="AI11">
-        <v>824</v>
+        <v>1218</v>
       </c>
       <c r="AJ11">
-        <v>755</v>
+        <v>1154</v>
       </c>
       <c r="AK11">
-        <v>718</v>
+        <v>844</v>
       </c>
       <c r="AL11">
+        <v>491</v>
+      </c>
+      <c r="AM11">
         <v>498</v>
       </c>
-      <c r="AM11">
-        <v>376</v>
-      </c>
       <c r="AN11">
-        <v>374</v>
+        <v>496</v>
       </c>
       <c r="AO11">
-        <v>2400</v>
+        <v>3520</v>
       </c>
       <c r="AP11">
-        <v>2439</v>
+        <v>3119</v>
       </c>
       <c r="AQ11">
-        <v>2062</v>
+        <v>2315</v>
       </c>
       <c r="AR11">
-        <v>20271.432000000001</v>
+        <v>20457</v>
       </c>
       <c r="AS11">
-        <v>17722.455999999998</v>
+        <v>19369</v>
       </c>
       <c r="AT11">
-        <v>17574.432000000001</v>
+        <v>17431</v>
       </c>
       <c r="AU11">
-        <v>20271.432000000001</v>
+        <v>20457</v>
       </c>
       <c r="AV11">
-        <v>17722.455999999998</v>
+        <v>19369</v>
       </c>
       <c r="AW11">
-        <v>17574.432000000001</v>
+        <v>17431</v>
       </c>
       <c r="AX11">
-        <v>49.99</v>
+        <v>49.95</v>
       </c>
       <c r="AY11">
-        <v>49.97</v>
+        <v>49.88</v>
       </c>
       <c r="AZ11">
         <v>50.02</v>
@@ -2760,28 +2760,28 @@
         <v>199</v>
       </c>
       <c r="BC11">
-        <v>49.99</v>
+        <v>49.97</v>
       </c>
       <c r="BD11" t="s">
         <v>200</v>
       </c>
       <c r="BE11">
-        <v>159</v>
+        <v>776</v>
       </c>
       <c r="BF11">
-        <v>943</v>
+        <v>830</v>
       </c>
       <c r="BG11">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="BJ11">
-        <v>4612.4319999999998</v>
+        <v>4842</v>
       </c>
       <c r="BK11">
-        <v>4158.4560000000001</v>
+        <v>4883</v>
       </c>
       <c r="BL11">
-        <v>4292.4319999999998</v>
+        <v>4804</v>
       </c>
       <c r="BM11">
         <v>0</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>722</v>
+        <v>742</v>
       </c>
       <c r="BT11">
         <v>0</v>
@@ -2814,58 +2814,58 @@
         <v>201</v>
       </c>
       <c r="BW11">
-        <v>5430</v>
+        <v>5624</v>
       </c>
       <c r="BX11">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="BY11">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="BZ11">
-        <v>6242</v>
+        <v>6361</v>
       </c>
       <c r="CA11">
-        <v>7427</v>
+        <v>6434</v>
       </c>
       <c r="CB11">
         <v>0</v>
       </c>
       <c r="CC11">
-        <v>-1030</v>
+        <v>-1780</v>
       </c>
       <c r="CD11">
-        <v>18149.944</v>
+        <v>17282</v>
       </c>
       <c r="CE11">
         <v>0</v>
       </c>
       <c r="CF11">
-        <v>18149.944</v>
+        <v>17282</v>
       </c>
       <c r="CG11">
-        <v>857</v>
+        <v>1324</v>
       </c>
       <c r="CH11">
         <v>496</v>
       </c>
       <c r="CI11">
-        <v>2383</v>
+        <v>3600</v>
       </c>
       <c r="CJ11">
-        <v>20532.944</v>
+        <v>20882</v>
       </c>
       <c r="CK11">
-        <v>20532.944</v>
+        <v>20882</v>
       </c>
       <c r="CL11">
-        <v>50.01</v>
+        <v>50</v>
       </c>
       <c r="CM11">
-        <v>184</v>
+        <v>1054</v>
       </c>
       <c r="CN11">
-        <v>4620.9440000000004</v>
+        <v>4857</v>
       </c>
       <c r="CO11">
         <v>0</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="CQ11">
-        <v>706</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:65" x14ac:dyDescent="0.25">
@@ -3076,70 +3076,70 @@
     </row>
     <row r="21" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>43198</v>
-      </c>
-      <c r="E21">
-        <v>8.907</v>
+        <v>43257</v>
+      </c>
+      <c r="D21">
+        <v>3.5539999999999998</v>
       </c>
       <c r="F21">
-        <v>9.8450000000000006</v>
+        <v>7.7770000000000001</v>
       </c>
       <c r="G21">
-        <v>9.8640000000000008</v>
-      </c>
-      <c r="I21">
-        <v>4.25</v>
+        <v>7.5789999999999997</v>
       </c>
       <c r="J21">
-        <v>10.865</v>
+        <v>10.84</v>
       </c>
       <c r="K21">
-        <v>11.06</v>
+        <v>10.824999999999999</v>
       </c>
       <c r="N21">
-        <v>5.28</v>
+        <v>5.5410000000000004</v>
       </c>
       <c r="O21">
-        <v>5.2380000000000004</v>
+        <v>5.4820000000000002</v>
       </c>
       <c r="P21">
-        <v>4.8479999999999999</v>
+        <v>5.2729999999999997</v>
       </c>
       <c r="S21">
-        <v>1.464</v>
+        <v>11.179</v>
       </c>
       <c r="U21">
-        <v>10.459</v>
+        <v>10.615</v>
+      </c>
+      <c r="V21">
+        <v>7.8520000000000003</v>
       </c>
       <c r="W21">
-        <v>6.5709999999999997</v>
+        <v>7.6609999999999996</v>
       </c>
       <c r="X21">
-        <v>5.4550000000000001</v>
+        <v>5.8419999999999996</v>
       </c>
       <c r="Y21">
-        <v>4.3540000000000001</v>
-      </c>
-      <c r="Z21">
-        <v>3.92</v>
+        <v>5.83</v>
       </c>
       <c r="AA21">
-        <v>4.335</v>
+        <v>3.25</v>
+      </c>
+      <c r="AB21">
+        <v>3.4089999999999998</v>
       </c>
       <c r="AC21">
-        <v>4.7670000000000003</v>
+        <v>3.206</v>
       </c>
       <c r="AD21">
-        <v>11.331</v>
+        <v>7.9039999999999999</v>
       </c>
       <c r="AE21">
-        <v>4.2869999999999999</v>
+        <v>4.5060000000000002</v>
       </c>
       <c r="AG21">
-        <v>4.2709999999999999</v>
+        <v>4.4169999999999998</v>
       </c>
       <c r="AH21">
-        <v>10.667</v>
+        <v>9.1140000000000008</v>
       </c>
       <c r="AI21">
         <v>0</v>
@@ -3148,82 +3148,82 @@
         <v>0</v>
       </c>
       <c r="AK21">
-        <v>9.1999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="AL21">
-        <v>2.5649999999999999</v>
+        <v>3.99</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>2.972</v>
       </c>
       <c r="AN21">
-        <v>0.99</v>
+        <v>1.63</v>
       </c>
       <c r="AO21">
-        <v>0.86399999999999999</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="AP21">
-        <v>1.4330000000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ21">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AS21">
-        <v>9.1999999999999998E-2</v>
+        <v>0.22</v>
       </c>
       <c r="AT21">
-        <v>0.30099999999999999</v>
+        <v>0.246</v>
       </c>
       <c r="AU21">
-        <v>0.48699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AW21">
-        <v>0.49299999999999999</v>
+        <v>0.151</v>
       </c>
       <c r="AX21">
-        <v>0</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="AY21">
-        <v>9.3569999999999993</v>
+        <v>17.936</v>
       </c>
       <c r="AZ21">
-        <v>45.281999999999996</v>
+        <v>40.668999999999997</v>
       </c>
       <c r="BA21">
-        <v>17.149999999999999</v>
+        <v>26.548999999999999</v>
       </c>
       <c r="BB21">
-        <v>5.0570000000000004</v>
+        <v>9.4079999999999995</v>
       </c>
       <c r="BC21">
-        <v>22.954999999999998</v>
+        <v>19.297999999999998</v>
       </c>
       <c r="BD21">
-        <v>4.8600000000000003</v>
+        <v>5.5720000000000001</v>
       </c>
       <c r="BE21">
-        <v>11.882999999999999</v>
+        <v>13.18</v>
       </c>
       <c r="BF21">
-        <v>4.9109999999999996</v>
+        <v>5.4249999999999998</v>
       </c>
       <c r="BG21">
-        <v>8.9380000000000006</v>
+        <v>11.63</v>
       </c>
       <c r="BI21">
-        <v>2.5089999999999999</v>
+        <v>1.9259999999999999</v>
       </c>
       <c r="BJ21">
-        <v>1.5209999999999999</v>
+        <v>1.258</v>
       </c>
       <c r="BK21">
-        <v>5.0110000000000001</v>
+        <v>5.6189999999999998</v>
       </c>
       <c r="BL21">
-        <v>1.048</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="BM21">
-        <v>10.42</v>
+        <v>11.920999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:65" x14ac:dyDescent="0.25">
@@ -3290,61 +3290,61 @@
     </row>
     <row r="31" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>5077</v>
+        <v>5501</v>
       </c>
       <c r="D31">
-        <v>358</v>
+        <v>782</v>
       </c>
       <c r="E31">
-        <v>446</v>
+        <v>385</v>
       </c>
       <c r="F31">
-        <v>5881</v>
+        <v>6668</v>
       </c>
       <c r="G31">
-        <v>565</v>
+        <v>864</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>5522</v>
+        <v>4968</v>
       </c>
       <c r="J31">
-        <v>5895</v>
+        <v>5039</v>
       </c>
       <c r="K31">
-        <v>-958.22299999999996</v>
+        <v>-1177.9960000000001</v>
       </c>
       <c r="L31">
-        <v>-1305</v>
+        <v>-1452</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>15479.944</v>
+        <v>15960</v>
       </c>
       <c r="O31">
-        <v>15479.944</v>
+        <v>15960</v>
       </c>
       <c r="P31">
-        <v>2528</v>
+        <v>2866</v>
       </c>
       <c r="Q31">
-        <v>18007.944</v>
+        <v>18826</v>
       </c>
       <c r="R31">
-        <v>49.95</v>
+        <v>49.99</v>
       </c>
       <c r="S31">
-        <v>4443.9440000000004</v>
+        <v>4841</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -3352,61 +3352,61 @@
     </row>
     <row r="32" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32">
-        <v>5308</v>
+        <v>5530</v>
       </c>
       <c r="D32">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="E32">
-        <v>468</v>
+        <v>391</v>
       </c>
       <c r="F32">
-        <v>6096</v>
+        <v>6371</v>
       </c>
       <c r="G32">
-        <v>416</v>
+        <v>578</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>5718</v>
+        <v>4893</v>
       </c>
       <c r="J32">
-        <v>6270</v>
+        <v>4901</v>
       </c>
       <c r="K32">
-        <v>-905.55100000000004</v>
+        <v>-1062.6179999999999</v>
       </c>
       <c r="L32">
-        <v>-1207</v>
+        <v>-1282</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>15945.456</v>
+        <v>15367</v>
       </c>
       <c r="O32">
-        <v>15945.456</v>
+        <v>15367</v>
       </c>
       <c r="P32">
-        <v>2316</v>
+        <v>2640</v>
       </c>
       <c r="Q32">
-        <v>18261.455999999998</v>
+        <v>18007</v>
       </c>
       <c r="R32">
-        <v>49.96</v>
+        <v>49.98</v>
       </c>
       <c r="S32">
-        <v>4370.4560000000001</v>
+        <v>4799</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -3414,61 +3414,61 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>5395</v>
+        <v>5482</v>
       </c>
       <c r="D33">
-        <v>198</v>
+        <v>296</v>
       </c>
       <c r="E33">
-        <v>459</v>
+        <v>407</v>
       </c>
       <c r="F33">
-        <v>6052</v>
+        <v>6185</v>
       </c>
       <c r="G33">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>5922</v>
+        <v>4850</v>
       </c>
       <c r="J33">
-        <v>5928</v>
+        <v>4939</v>
       </c>
       <c r="K33">
-        <v>-814.99099999999999</v>
+        <v>-1020.122</v>
       </c>
       <c r="L33">
-        <v>-1070</v>
+        <v>-1141</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>15546.944</v>
+        <v>15144</v>
       </c>
       <c r="O33">
-        <v>15546.944</v>
+        <v>15144</v>
       </c>
       <c r="P33">
-        <v>2166</v>
+        <v>2485</v>
       </c>
       <c r="Q33">
-        <v>17712.944</v>
+        <v>17629</v>
       </c>
       <c r="R33">
-        <v>50.01</v>
+        <v>50.02</v>
       </c>
       <c r="S33">
-        <v>4291.9440000000004</v>
+        <v>4778</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -3476,61 +3476,61 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B34">
         <v>4</v>
       </c>
       <c r="C34">
-        <v>5439</v>
+        <v>5489</v>
       </c>
       <c r="D34">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="E34">
-        <v>460</v>
+        <v>406</v>
       </c>
       <c r="F34">
-        <v>6089</v>
+        <v>6128</v>
       </c>
       <c r="G34">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>5812</v>
+        <v>4791</v>
       </c>
       <c r="J34">
-        <v>5778</v>
+        <v>5105</v>
       </c>
       <c r="K34">
-        <v>-757.32600000000002</v>
+        <v>-964.70799999999997</v>
       </c>
       <c r="L34">
-        <v>-970</v>
+        <v>-1013</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>15512.432000000001</v>
+        <v>15329</v>
       </c>
       <c r="O34">
-        <v>15512.432000000001</v>
+        <v>15329</v>
       </c>
       <c r="P34">
-        <v>2062</v>
+        <v>2356</v>
       </c>
       <c r="Q34">
-        <v>17574.432000000001</v>
+        <v>17685</v>
       </c>
       <c r="R34">
-        <v>50.02</v>
+        <v>50.01</v>
       </c>
       <c r="S34">
-        <v>4292.4319999999998</v>
+        <v>4796</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -3538,61 +3538,61 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B35">
         <v>5</v>
       </c>
       <c r="C35">
-        <v>5475</v>
+        <v>5499</v>
       </c>
       <c r="D35">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="E35">
-        <v>461</v>
+        <v>408</v>
       </c>
       <c r="F35">
-        <v>6131</v>
+        <v>6125</v>
       </c>
       <c r="G35">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>5643</v>
+        <v>4773</v>
       </c>
       <c r="J35">
-        <v>5854</v>
+        <v>4882</v>
       </c>
       <c r="K35">
-        <v>-718.553</v>
+        <v>-950.82299999999998</v>
       </c>
       <c r="L35">
-        <v>-919</v>
+        <v>-975</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>15674.432000000001</v>
+        <v>15116</v>
       </c>
       <c r="O35">
-        <v>15674.432000000001</v>
+        <v>15116</v>
       </c>
       <c r="P35">
-        <v>2008</v>
+        <v>2315</v>
       </c>
       <c r="Q35">
-        <v>17682.432000000001</v>
+        <v>17431</v>
       </c>
       <c r="R35">
-        <v>49.99</v>
+        <v>50.02</v>
       </c>
       <c r="S35">
-        <v>4373.4319999999998</v>
+        <v>4804</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -3600,61 +3600,61 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B36">
         <v>6</v>
       </c>
       <c r="C36">
-        <v>5792</v>
+        <v>5499</v>
       </c>
       <c r="D36">
-        <v>195</v>
+        <v>123</v>
       </c>
       <c r="E36">
-        <v>470</v>
+        <v>407</v>
       </c>
       <c r="F36">
-        <v>6457</v>
+        <v>6029</v>
       </c>
       <c r="G36">
-        <v>132</v>
+        <v>419</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>5922</v>
+        <v>5111</v>
       </c>
       <c r="J36">
-        <v>5789</v>
+        <v>5346</v>
       </c>
       <c r="K36">
-        <v>-713.49099999999999</v>
+        <v>-980.03700000000003</v>
       </c>
       <c r="L36">
-        <v>-899</v>
+        <v>-1000</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>16153.432000000001</v>
+        <v>15604</v>
       </c>
       <c r="O36">
-        <v>16153.432000000001</v>
+        <v>15604</v>
       </c>
       <c r="P36">
-        <v>2038</v>
+        <v>2343</v>
       </c>
       <c r="Q36">
-        <v>18191.432000000001</v>
+        <v>17947</v>
       </c>
       <c r="R36">
         <v>50.01</v>
       </c>
       <c r="S36">
-        <v>4674.4319999999998</v>
+        <v>4810</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -3662,867 +3662,867 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B37">
         <v>7</v>
       </c>
       <c r="C37">
-        <v>5845</v>
+        <v>5506</v>
       </c>
       <c r="D37">
-        <v>195</v>
+        <v>422</v>
       </c>
       <c r="E37">
-        <v>453</v>
+        <v>371</v>
       </c>
       <c r="F37">
-        <v>6493</v>
+        <v>6299</v>
       </c>
       <c r="G37">
-        <v>122</v>
+        <v>339</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>6197</v>
+        <v>5128</v>
       </c>
       <c r="J37">
-        <v>6257</v>
+        <v>5409</v>
       </c>
       <c r="K37">
-        <v>-537.33699999999999</v>
+        <v>-982.01800000000003</v>
       </c>
       <c r="L37">
-        <v>-686</v>
+        <v>-1008</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>17049.407999999999</v>
+        <v>15889</v>
       </c>
       <c r="O37">
-        <v>17049.407999999999</v>
+        <v>15889</v>
       </c>
       <c r="P37">
-        <v>2007</v>
+        <v>2328</v>
       </c>
       <c r="Q37">
-        <v>19056.407999999999</v>
+        <v>18217</v>
       </c>
       <c r="R37">
-        <v>50.03</v>
+        <v>50.01</v>
       </c>
       <c r="S37">
-        <v>4847.4080000000004</v>
+        <v>4810</v>
       </c>
       <c r="T37">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B38">
         <v>8</v>
       </c>
       <c r="C38">
-        <v>5913</v>
+        <v>5528</v>
       </c>
       <c r="D38">
-        <v>189</v>
+        <v>287</v>
       </c>
       <c r="E38">
-        <v>462</v>
+        <v>347</v>
       </c>
       <c r="F38">
-        <v>6564</v>
+        <v>6162</v>
       </c>
       <c r="G38">
-        <v>48</v>
+        <v>422</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>6230</v>
+        <v>5204</v>
       </c>
       <c r="J38">
-        <v>6040</v>
+        <v>5472</v>
       </c>
       <c r="K38">
-        <v>-622.45299999999997</v>
+        <v>-1065.9069999999999</v>
       </c>
       <c r="L38">
-        <v>-625</v>
+        <v>-1134</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>16959.432000000001</v>
+        <v>15868</v>
       </c>
       <c r="O38">
-        <v>16959.432000000001</v>
+        <v>15868</v>
       </c>
       <c r="P38">
-        <v>2009</v>
+        <v>2456</v>
       </c>
       <c r="Q38">
-        <v>18968.432000000001</v>
+        <v>18324</v>
       </c>
       <c r="R38">
-        <v>50.02</v>
+        <v>50.04</v>
       </c>
       <c r="S38">
-        <v>4803.4319999999998</v>
+        <v>4786</v>
       </c>
       <c r="T38">
-        <v>129</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B39">
         <v>9</v>
       </c>
       <c r="C39">
-        <v>5629</v>
+        <v>5564</v>
       </c>
       <c r="D39">
-        <v>304</v>
+        <v>72</v>
       </c>
       <c r="E39">
-        <v>455</v>
+        <v>375</v>
       </c>
       <c r="F39">
-        <v>6388</v>
+        <v>6011</v>
       </c>
       <c r="G39">
-        <v>94</v>
+        <v>332</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>6042</v>
+        <v>5417</v>
       </c>
       <c r="J39">
-        <v>6110</v>
+        <v>5759</v>
       </c>
       <c r="K39">
-        <v>-817.44899999999996</v>
+        <v>-1263.7249999999999</v>
       </c>
       <c r="L39">
-        <v>-820</v>
+        <v>-1444</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>16722.432000000001</v>
+        <v>15818</v>
       </c>
       <c r="O39">
-        <v>16722.432000000001</v>
+        <v>15818</v>
       </c>
       <c r="P39">
-        <v>2105</v>
+        <v>2787</v>
       </c>
       <c r="Q39">
-        <v>18827.432000000001</v>
+        <v>18605</v>
       </c>
       <c r="R39">
-        <v>50.01</v>
+        <v>50</v>
       </c>
       <c r="S39">
-        <v>4598.4319999999998</v>
+        <v>4763</v>
       </c>
       <c r="T39">
-        <v>352</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B40">
         <v>10</v>
       </c>
       <c r="C40">
-        <v>5562</v>
+        <v>5494</v>
       </c>
       <c r="D40">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="E40">
-        <v>450</v>
+        <v>371</v>
       </c>
       <c r="F40">
-        <v>6378</v>
+        <v>6207</v>
       </c>
       <c r="G40">
-        <v>141</v>
+        <v>410</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>6109</v>
+        <v>5629</v>
       </c>
       <c r="J40">
-        <v>6108</v>
+        <v>5812</v>
       </c>
       <c r="K40">
-        <v>-898.52700000000004</v>
+        <v>-1428.415</v>
       </c>
       <c r="L40">
-        <v>-953</v>
+        <v>-1647</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>16805.432000000001</v>
+        <v>16192</v>
       </c>
       <c r="O40">
-        <v>16805.432000000001</v>
+        <v>16192</v>
       </c>
       <c r="P40">
-        <v>2231</v>
+        <v>3162</v>
       </c>
       <c r="Q40">
-        <v>19036.432000000001</v>
+        <v>19354</v>
       </c>
       <c r="R40">
-        <v>50.01</v>
+        <v>49.96</v>
       </c>
       <c r="S40">
-        <v>4607.4319999999998</v>
+        <v>4789</v>
       </c>
       <c r="T40">
-        <v>524</v>
+        <v>621</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B41">
         <v>11</v>
       </c>
       <c r="C41">
-        <v>5492</v>
+        <v>5493</v>
       </c>
       <c r="D41">
-        <v>414</v>
+        <v>264</v>
       </c>
       <c r="E41">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="F41">
-        <v>6349</v>
+        <v>6126</v>
       </c>
       <c r="G41">
-        <v>183</v>
+        <v>660</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>6330</v>
+        <v>5777</v>
       </c>
       <c r="J41">
-        <v>6351</v>
+        <v>5975</v>
       </c>
       <c r="K41">
-        <v>-1064.3140000000001</v>
+        <v>-1551.6189999999999</v>
       </c>
       <c r="L41">
-        <v>-1078</v>
+        <v>-1783</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>17075.342000000001</v>
+        <v>16465</v>
       </c>
       <c r="O41">
-        <v>17075.342000000001</v>
+        <v>16465</v>
       </c>
       <c r="P41">
-        <v>2339</v>
+        <v>3428</v>
       </c>
       <c r="Q41">
-        <v>19414.342000000001</v>
+        <v>19893</v>
       </c>
       <c r="R41">
-        <v>50</v>
+        <v>49.95</v>
       </c>
       <c r="S41">
-        <v>4612.3419999999996</v>
+        <v>4813</v>
       </c>
       <c r="T41">
-        <v>658</v>
+        <v>674</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B42">
         <v>12</v>
       </c>
       <c r="C42">
-        <v>5490</v>
+        <v>5438</v>
       </c>
       <c r="D42">
-        <v>436</v>
+        <v>506</v>
       </c>
       <c r="E42">
-        <v>425</v>
+        <v>372</v>
       </c>
       <c r="F42">
-        <v>6351</v>
+        <v>6316</v>
       </c>
       <c r="G42">
-        <v>159</v>
+        <v>776</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>6975</v>
+        <v>5855</v>
       </c>
       <c r="J42">
-        <v>7105</v>
+        <v>6072</v>
       </c>
       <c r="K42">
-        <v>-1148.7370000000001</v>
+        <v>-1549.809</v>
       </c>
       <c r="L42">
-        <v>-1078</v>
+        <v>-1811</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
-        <v>17871.432000000001</v>
+        <v>16937</v>
       </c>
       <c r="O42">
-        <v>17871.432000000001</v>
+        <v>16937</v>
       </c>
       <c r="P42">
-        <v>2400</v>
+        <v>3520</v>
       </c>
       <c r="Q42">
-        <v>20271.432000000001</v>
+        <v>20457</v>
       </c>
       <c r="R42">
-        <v>49.99</v>
+        <v>49.95</v>
       </c>
       <c r="S42">
-        <v>4612.4319999999998</v>
+        <v>4842</v>
       </c>
       <c r="T42">
-        <v>722</v>
+        <v>742</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B43">
         <v>13</v>
       </c>
       <c r="C43">
-        <v>5435</v>
+        <v>5510</v>
       </c>
       <c r="D43">
-        <v>530</v>
+        <v>169</v>
       </c>
       <c r="E43">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="F43">
-        <v>6384</v>
+        <v>6054</v>
       </c>
       <c r="G43">
-        <v>164</v>
+        <v>846</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>7268</v>
+        <v>6525</v>
       </c>
       <c r="J43">
-        <v>7184</v>
+        <v>6459</v>
       </c>
       <c r="K43">
-        <v>-1145.9459999999999</v>
+        <v>-1543.2929999999999</v>
       </c>
       <c r="L43">
-        <v>-1034</v>
+        <v>-1860</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>18007.455999999998</v>
+        <v>17080</v>
       </c>
       <c r="O43">
-        <v>18007.455999999998</v>
+        <v>17080</v>
       </c>
       <c r="P43">
-        <v>2407</v>
+        <v>3515</v>
       </c>
       <c r="Q43">
-        <v>20414.455999999998</v>
+        <v>20595</v>
       </c>
       <c r="R43">
         <v>49.98</v>
       </c>
       <c r="S43">
-        <v>4588.4560000000001</v>
+        <v>4843</v>
       </c>
       <c r="T43">
-        <v>721</v>
+        <v>738</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B44">
         <v>14</v>
       </c>
       <c r="C44">
-        <v>5430</v>
+        <v>5544</v>
       </c>
       <c r="D44">
-        <v>402</v>
+        <v>208</v>
       </c>
       <c r="E44">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="F44">
-        <v>6242</v>
+        <v>6135</v>
       </c>
       <c r="G44">
-        <v>184</v>
+        <v>971</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>7260</v>
+        <v>6478</v>
       </c>
       <c r="J44">
-        <v>7427</v>
+        <v>6487</v>
       </c>
       <c r="K44">
-        <v>-1123.527</v>
+        <v>-1486.279</v>
       </c>
       <c r="L44">
-        <v>-1030</v>
+        <v>-1786</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>18149.944</v>
+        <v>17284</v>
       </c>
       <c r="O44">
-        <v>18149.944</v>
+        <v>17284</v>
       </c>
       <c r="P44">
-        <v>2383</v>
+        <v>3427</v>
       </c>
       <c r="Q44">
-        <v>20532.944</v>
+        <v>20711</v>
       </c>
       <c r="R44">
-        <v>50.01</v>
+        <v>49.99</v>
       </c>
       <c r="S44">
-        <v>4620.9440000000004</v>
+        <v>4728</v>
       </c>
       <c r="T44">
-        <v>706</v>
+        <v>749</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B45">
         <v>15</v>
       </c>
       <c r="C45">
-        <v>5450</v>
+        <v>5581</v>
       </c>
       <c r="D45">
-        <v>529</v>
+        <v>243</v>
       </c>
       <c r="E45">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="F45">
-        <v>6400</v>
+        <v>6187</v>
       </c>
       <c r="G45">
-        <v>141</v>
+        <v>1003</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>7341</v>
+        <v>6693</v>
       </c>
       <c r="J45">
-        <v>7393</v>
+        <v>6420</v>
       </c>
       <c r="K45">
-        <v>-1132.8979999999999</v>
+        <v>-1517.337</v>
       </c>
       <c r="L45">
-        <v>-1038</v>
+        <v>-1827</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <v>18027.432000000001</v>
+        <v>17052</v>
       </c>
       <c r="O45">
-        <v>18027.432000000001</v>
+        <v>17052</v>
       </c>
       <c r="P45">
-        <v>2392</v>
+        <v>3541</v>
       </c>
       <c r="Q45">
-        <v>20419.432000000001</v>
+        <v>20593</v>
       </c>
       <c r="R45">
         <v>49.95</v>
       </c>
       <c r="S45">
-        <v>4589.4319999999998</v>
+        <v>4749</v>
       </c>
       <c r="T45">
-        <v>542</v>
+        <v>520</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B46">
         <v>16</v>
       </c>
       <c r="C46">
-        <v>5560</v>
+        <v>5624</v>
       </c>
       <c r="D46">
-        <v>604</v>
+        <v>363</v>
       </c>
       <c r="E46">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="F46">
-        <v>6588</v>
+        <v>6361</v>
       </c>
       <c r="G46">
-        <v>228</v>
+        <v>1054</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>7437</v>
+        <v>6872</v>
       </c>
       <c r="J46">
-        <v>7384</v>
+        <v>6434</v>
       </c>
       <c r="K46">
-        <v>-1113.454</v>
+        <v>-1528.8530000000001</v>
       </c>
       <c r="L46">
-        <v>-1016</v>
+        <v>-1780</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>18079.432000000001</v>
+        <v>17282</v>
       </c>
       <c r="O46">
-        <v>18079.432000000001</v>
+        <v>17282</v>
       </c>
       <c r="P46">
-        <v>2367</v>
+        <v>3600</v>
       </c>
       <c r="Q46">
-        <v>20446.432000000001</v>
+        <v>20882</v>
       </c>
       <c r="R46">
-        <v>49.98</v>
+        <v>50</v>
       </c>
       <c r="S46">
-        <v>4586.4319999999998</v>
+        <v>4857</v>
       </c>
       <c r="T46">
-        <v>309</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B47">
         <v>17</v>
       </c>
       <c r="C47">
-        <v>5736</v>
+        <v>5628</v>
       </c>
       <c r="D47">
-        <v>339</v>
+        <v>198</v>
       </c>
       <c r="E47">
-        <v>427</v>
+        <v>385</v>
       </c>
       <c r="F47">
-        <v>6502</v>
+        <v>6211</v>
       </c>
       <c r="G47">
-        <v>517</v>
+        <v>1373</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>7214</v>
+        <v>6527</v>
       </c>
       <c r="J47">
-        <v>6763</v>
+        <v>6046</v>
       </c>
       <c r="K47">
-        <v>-1055.432</v>
+        <v>-1507.096</v>
       </c>
       <c r="L47">
-        <v>-962</v>
+        <v>-1731</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>17594.432000000001</v>
+        <v>16960</v>
       </c>
       <c r="O47">
-        <v>17594.432000000001</v>
+        <v>16960</v>
       </c>
       <c r="P47">
-        <v>2334</v>
+        <v>3517</v>
       </c>
       <c r="Q47">
-        <v>19928.432000000001</v>
+        <v>20477</v>
       </c>
       <c r="R47">
-        <v>50.02</v>
+        <v>49.99</v>
       </c>
       <c r="S47">
-        <v>4603.4319999999998</v>
+        <v>4774</v>
       </c>
       <c r="T47">
-        <v>171</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B48">
         <v>18</v>
       </c>
       <c r="C48">
-        <v>5605</v>
+        <v>5580</v>
       </c>
       <c r="D48">
-        <v>248</v>
+        <v>314</v>
       </c>
       <c r="E48">
-        <v>431</v>
+        <v>366</v>
       </c>
       <c r="F48">
-        <v>6284</v>
+        <v>6260</v>
       </c>
       <c r="G48">
-        <v>727</v>
+        <v>1250</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>6251</v>
+        <v>5455</v>
       </c>
       <c r="J48">
-        <v>5880</v>
+        <v>5292</v>
       </c>
       <c r="K48">
-        <v>-944.65300000000002</v>
+        <v>-1368.396</v>
       </c>
       <c r="L48">
-        <v>-1119</v>
+        <v>-1679</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
-        <v>16150.456</v>
+        <v>15821</v>
       </c>
       <c r="O48">
-        <v>16150.456</v>
+        <v>15821</v>
       </c>
       <c r="P48">
-        <v>2274</v>
+        <v>3373</v>
       </c>
       <c r="Q48">
-        <v>18424.455999999998</v>
+        <v>19194</v>
       </c>
       <c r="R48">
-        <v>50.03</v>
+        <v>50.01</v>
       </c>
       <c r="S48">
-        <v>4319.4560000000001</v>
+        <v>4575</v>
       </c>
       <c r="T48">
-        <v>59</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B49">
         <v>19</v>
       </c>
       <c r="C49">
-        <v>5430</v>
+        <v>5296</v>
       </c>
       <c r="D49">
-        <v>198</v>
+        <v>313</v>
       </c>
       <c r="E49">
-        <v>444</v>
+        <v>387</v>
       </c>
       <c r="F49">
-        <v>6072</v>
+        <v>5996</v>
       </c>
       <c r="G49">
-        <v>1116</v>
+        <v>1151</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>5822</v>
+        <v>5291</v>
       </c>
       <c r="J49">
-        <v>5203</v>
+        <v>5360</v>
       </c>
       <c r="K49">
-        <v>-940.23699999999997</v>
+        <v>-1277.2349999999999</v>
       </c>
       <c r="L49">
-        <v>-1221</v>
+        <v>-1568</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="N49">
-        <v>15386.456</v>
+        <v>15452</v>
       </c>
       <c r="O49">
-        <v>15386.456</v>
+        <v>15452</v>
       </c>
       <c r="P49">
-        <v>2288</v>
+        <v>3206</v>
       </c>
       <c r="Q49">
-        <v>17674.455999999998</v>
+        <v>18658</v>
       </c>
       <c r="R49">
         <v>49.99</v>
       </c>
       <c r="S49">
-        <v>4214.4560000000001</v>
+        <v>4495</v>
       </c>
       <c r="T49">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B50">
         <v>20</v>
       </c>
       <c r="C50">
-        <v>5184</v>
+        <v>5421</v>
       </c>
       <c r="D50">
-        <v>188</v>
+        <v>829</v>
       </c>
       <c r="E50">
-        <v>447</v>
+        <v>377</v>
       </c>
       <c r="F50">
-        <v>5819</v>
+        <v>6627</v>
       </c>
       <c r="G50">
-        <v>943</v>
+        <v>743</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>5697</v>
+        <v>5203</v>
       </c>
       <c r="J50">
-        <v>5671</v>
+        <v>5095</v>
       </c>
       <c r="K50">
-        <v>-1013.216</v>
+        <v>-1334.1479999999999</v>
       </c>
       <c r="L50">
-        <v>-1308</v>
+        <v>-1415</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>15283.456</v>
+        <v>15742</v>
       </c>
       <c r="O50">
-        <v>15283.456</v>
+        <v>15742</v>
       </c>
       <c r="P50">
-        <v>2439</v>
+        <v>3154</v>
       </c>
       <c r="Q50">
-        <v>17722.455999999998</v>
+        <v>18896</v>
       </c>
       <c r="R50">
-        <v>49.97</v>
+        <v>49.86</v>
       </c>
       <c r="S50">
-        <v>4158.4560000000001</v>
+        <v>4692</v>
       </c>
       <c r="T50">
         <v>0</v>
@@ -4530,61 +4530,61 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B51">
         <v>21</v>
       </c>
       <c r="C51">
-        <v>5055</v>
+        <v>5643</v>
       </c>
       <c r="D51">
-        <v>188</v>
+        <v>1133</v>
       </c>
       <c r="E51">
-        <v>451</v>
+        <v>365</v>
       </c>
       <c r="F51">
-        <v>5694</v>
+        <v>7141</v>
       </c>
       <c r="G51">
-        <v>1041</v>
+        <v>830</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>5715</v>
+        <v>5090</v>
       </c>
       <c r="J51">
-        <v>5374</v>
+        <v>4863</v>
       </c>
       <c r="K51">
-        <v>-1044.9580000000001</v>
+        <v>-1347.73</v>
       </c>
       <c r="L51">
-        <v>-1383</v>
+        <v>-1467</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
-        <v>14899.456</v>
+        <v>16250</v>
       </c>
       <c r="O51">
-        <v>14899.456</v>
+        <v>16250</v>
       </c>
       <c r="P51">
-        <v>2517</v>
+        <v>3119</v>
       </c>
       <c r="Q51">
-        <v>17416.455999999998</v>
+        <v>19369</v>
       </c>
       <c r="R51">
-        <v>49.99</v>
+        <v>49.88</v>
       </c>
       <c r="S51">
-        <v>4173.4560000000001</v>
+        <v>4883</v>
       </c>
       <c r="T51">
         <v>0</v>
@@ -4592,61 +4592,61 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B52">
         <v>22</v>
       </c>
       <c r="C52">
-        <v>5066</v>
+        <v>5645</v>
       </c>
       <c r="D52">
-        <v>348</v>
+        <v>1060</v>
       </c>
       <c r="E52">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="F52">
-        <v>5856</v>
+        <v>7092</v>
       </c>
       <c r="G52">
-        <v>539</v>
+        <v>1016</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>5528</v>
+        <v>4912</v>
       </c>
       <c r="J52">
-        <v>5603</v>
+        <v>4762</v>
       </c>
       <c r="K52">
-        <v>-1065.9659999999999</v>
+        <v>-1286.1869999999999</v>
       </c>
       <c r="L52">
-        <v>-1326</v>
+        <v>-1580</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <v>14827.944</v>
+        <v>16184</v>
       </c>
       <c r="O52">
-        <v>14827.944</v>
+        <v>16184</v>
       </c>
       <c r="P52">
-        <v>2545</v>
+        <v>3119</v>
       </c>
       <c r="Q52">
-        <v>17372.944</v>
+        <v>19303</v>
       </c>
       <c r="R52">
-        <v>49.97</v>
+        <v>49.9</v>
       </c>
       <c r="S52">
-        <v>4155.9440000000004</v>
+        <v>4894</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -4654,61 +4654,61 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B53">
         <v>23</v>
       </c>
       <c r="C53">
-        <v>5279</v>
+        <v>5544</v>
       </c>
       <c r="D53">
-        <v>573</v>
+        <v>674</v>
       </c>
       <c r="E53">
-        <v>455</v>
+        <v>376</v>
       </c>
       <c r="F53">
-        <v>6307</v>
+        <v>6594</v>
       </c>
       <c r="G53">
-        <v>510</v>
+        <v>1065</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>5641</v>
+        <v>5228</v>
       </c>
       <c r="J53">
-        <v>5702</v>
+        <v>5168</v>
       </c>
       <c r="K53">
-        <v>-1139.913</v>
+        <v>-1307.8779999999999</v>
       </c>
       <c r="L53">
-        <v>-1394</v>
+        <v>-1590</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
-        <v>15414.432000000001</v>
+        <v>16050</v>
       </c>
       <c r="O53">
-        <v>15414.432000000001</v>
+        <v>16050</v>
       </c>
       <c r="P53">
-        <v>2588</v>
+        <v>3082</v>
       </c>
       <c r="Q53">
-        <v>18002.432000000001</v>
+        <v>19132</v>
       </c>
       <c r="R53">
-        <v>49.95</v>
+        <v>49.86</v>
       </c>
       <c r="S53">
-        <v>4289.4319999999998</v>
+        <v>4813</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -4716,61 +4716,61 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>43198</v>
+        <v>43257</v>
       </c>
       <c r="B54">
         <v>24</v>
       </c>
       <c r="C54">
-        <v>5724</v>
+        <v>5503</v>
       </c>
       <c r="D54">
-        <v>318</v>
+        <v>726</v>
       </c>
       <c r="E54">
-        <v>444</v>
+        <v>367</v>
       </c>
       <c r="F54">
-        <v>6486</v>
+        <v>6596</v>
       </c>
       <c r="G54">
-        <v>484</v>
+        <v>858</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>6081</v>
+        <v>5466</v>
       </c>
       <c r="J54">
-        <v>5701</v>
+        <v>5290</v>
       </c>
       <c r="K54">
-        <v>-1193.9590000000001</v>
+        <v>-1326.1849999999999</v>
       </c>
       <c r="L54">
-        <v>-1444</v>
+        <v>-1650</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>15586.944</v>
+        <v>15836</v>
       </c>
       <c r="O54">
-        <v>15586.944</v>
+        <v>15836</v>
       </c>
       <c r="P54">
-        <v>2589</v>
+        <v>3118</v>
       </c>
       <c r="Q54">
-        <v>18175.944</v>
+        <v>18954</v>
       </c>
       <c r="R54">
-        <v>49.95</v>
+        <v>50.01</v>
       </c>
       <c r="S54">
-        <v>4359.9440000000004</v>
+        <v>4742</v>
       </c>
       <c r="T54">
         <v>0</v>
